--- a/cta prac1/CTA_PRAC_1_OUTPUT_CHART.xlsx
+++ b/cta prac1/CTA_PRAC_1_OUTPUT_CHART.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIRMA\CTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIRMA\github\practicals\cta prac1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9552D10E-EE17-4511-BA86-378262EED952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3DBBB8-B950-4297-BA35-9EF17B335AB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7545" xr2:uid="{315B9408-445B-49AC-9707-A101026E1027}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>10k_random</t>
   </si>
@@ -63,7 +64,7 @@
     <t>bubble</t>
   </si>
   <si>
-    <t>`</t>
+    <t>quick</t>
   </si>
 </sst>
 </file>
@@ -107,6 +108,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF96D747"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,17 +140,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.9935695538057739E-2"/>
-          <c:y val="8.6749792186201158E-2"/>
-          <c:w val="0.92714763779527554"/>
-          <c:h val="0.74330682480151322"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -154,11 +150,112 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10k_random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10k_asc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50k_random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k_asc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100k_random</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100k_asc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100k_dsc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.10198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.215838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.412779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7547050000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4673580000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.038142000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B65-4647-B95B-8A47B5A3077B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>insertion</c:v>
+                  <c:v>selection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -175,7 +272,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -215,58 +312,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.66639199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.17429900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19</c:v>
+                  <c:v>0.74844699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3039999999999998</c:v>
+                  <c:v>16.947164000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.3067900000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7270000000000003</c:v>
+                  <c:v>17.405342000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4749999999999996</c:v>
+                  <c:v>67.538732999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>17.038902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.637</c:v>
+                  <c:v>69.985844999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-055C-4B35-8496-32C054B21515}"/>
+              <c16:uniqueId val="{00000001-3B65-4647-B95B-8A47B5A3077B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>selection</c:v>
+                  <c:v>bubble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -276,7 +373,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -316,51 +413,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.59</c:v>
+                  <c:v>0.662161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.183</c:v>
+                  <c:v>0.176344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61099999999999999</c:v>
+                  <c:v>0.730769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.041</c:v>
+                  <c:v>17.284324999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.33</c:v>
+                  <c:v>4.3957470000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.638</c:v>
+                  <c:v>17.249980000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.865000000000002</c:v>
+                  <c:v>68.097331999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>17.378018999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.529000000000003</c:v>
+                  <c:v>67.924502000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-055C-4B35-8496-32C054B21515}"/>
+              <c16:uniqueId val="{00000002-3B65-4647-B95B-8A47B5A3077B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bubble</c:v>
+                  <c:v>quick</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -377,7 +474,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -417,38 +514,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.61099999999999999</c:v>
+                  <c:v>1.629E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18099999999999999</c:v>
+                  <c:v>0.182088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58099999999999996</c:v>
+                  <c:v>0.177594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.208</c:v>
+                  <c:v>9.3659999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3550000000000004</c:v>
+                  <c:v>4.37608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.805999999999999</c:v>
+                  <c:v>4.3585219999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.893999999999998</c:v>
+                  <c:v>1.9944E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.146999999999998</c:v>
+                  <c:v>17.473656999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.884</c:v>
+                  <c:v>17.303326999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-055C-4B35-8496-32C054B21515}"/>
+              <c16:uniqueId val="{00000003-3B65-4647-B95B-8A47B5A3077B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -462,11 +559,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="359926479"/>
-        <c:axId val="350934479"/>
+        <c:axId val="2055021712"/>
+        <c:axId val="2056938032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359926479"/>
+        <c:axId val="2055021712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350934479"/>
+        <c:crossAx val="2056938032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -517,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350934479"/>
+        <c:axId val="2056938032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,61 +634,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>time in seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -623,16 +665,582 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359926479"/>
+        <c:crossAx val="2055021712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5168853893263323E-2"/>
+          <c:y val="9.9675925925925932E-2"/>
+          <c:w val="0.90149781277340335"/>
+          <c:h val="0.55668654929406669"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="96D747"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10k_random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10k_asc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50k_random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k_asc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100k_random</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100k_asc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100k_dsc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.10198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.215838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.412779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7547050000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4673580000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.038142000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4117-4AB2-B320-92E9B5729293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10k_random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10k_asc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50k_random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k_asc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100k_random</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100k_asc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100k_dsc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.66639199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17429900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74844699999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.947164000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3067900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.405342000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.538732999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.038902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.985844999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4117-4AB2-B320-92E9B5729293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10k_random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10k_asc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50k_random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k_asc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100k_random</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100k_asc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100k_dsc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.662161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.730769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.284324999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3957470000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.249980000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.097331999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.378018999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.924502000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4117-4AB2-B320-92E9B5729293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10k_random</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10k_asc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50k_random</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50k_asc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50k_dsc</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100k_random</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100k_asc</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100k_dsc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.629E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.182088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.177594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3659999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.37608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3585219999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9944E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.473656999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.303326999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4117-4AB2-B320-92E9B5729293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2043885536"/>
+        <c:axId val="1822213680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2043885536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -647,10 +1255,10 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr rtl="0">
+            <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -666,7 +1274,70 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-      </c:dTable>
+        <c:crossAx val="1822213680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1822213680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2043885536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -675,6 +1346,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -720,6 +1422,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -1259,27 +2001,571 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28520651-103E-4F7D-AA31-096B8A57D32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85B1FFB-197D-49E7-9DF7-F14879A27134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6FA007-7F90-4DB7-A82C-D057D9B8B344}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,10 +2883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9570A66B-ED20-4239-B175-C18522FF4C6B}">
-  <dimension ref="A2:L7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="Q9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,134 +2894,334 @@
     <col min="2" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.10198</v>
+      </c>
+      <c r="C2">
+        <v>5.1E-5</v>
+      </c>
+      <c r="D2">
+        <v>0.215838</v>
+      </c>
+      <c r="E2">
+        <v>2.412779</v>
+      </c>
+      <c r="F2">
+        <v>2.4899999999999998E-4</v>
+      </c>
+      <c r="G2">
+        <v>4.7547050000000004</v>
+      </c>
+      <c r="H2">
+        <v>9.4673580000000008</v>
+      </c>
+      <c r="I2">
+        <v>5.7300000000000005E-4</v>
+      </c>
+      <c r="J2">
+        <v>19.038142000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.66639199999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.17429900000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.74844699999999997</v>
+      </c>
+      <c r="E3">
+        <v>16.947164000000001</v>
+      </c>
+      <c r="F3">
+        <v>4.3067900000000003</v>
+      </c>
+      <c r="G3">
+        <v>17.405342000000001</v>
+      </c>
+      <c r="H3">
+        <v>67.538732999999993</v>
+      </c>
+      <c r="I3">
+        <v>17.038902</v>
+      </c>
+      <c r="J3">
+        <v>69.985844999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.662161</v>
+      </c>
+      <c r="C4">
+        <v>0.176344</v>
+      </c>
+      <c r="D4">
+        <v>0.730769</v>
+      </c>
+      <c r="E4">
+        <v>17.284324999999999</v>
+      </c>
+      <c r="F4">
+        <v>4.3957470000000001</v>
+      </c>
+      <c r="G4">
+        <v>17.249980000000001</v>
+      </c>
+      <c r="H4">
+        <v>68.097331999999994</v>
+      </c>
+      <c r="I4">
+        <v>17.378018999999998</v>
+      </c>
+      <c r="J4">
+        <v>67.924502000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.629E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.182088</v>
+      </c>
+      <c r="D5">
+        <v>0.177594</v>
+      </c>
+      <c r="E5">
+        <v>9.3659999999999993E-3</v>
+      </c>
+      <c r="F5">
+        <v>4.37608</v>
+      </c>
+      <c r="G5">
+        <v>4.3585219999999998</v>
+      </c>
+      <c r="H5">
+        <v>1.9944E-2</v>
+      </c>
+      <c r="I5">
+        <v>17.473656999999999</v>
+      </c>
+      <c r="J5">
+        <v>17.303326999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473BE4F5-A3F0-4383-8CFF-C6F296EEC467}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2">
+        <v>0.10198</v>
+      </c>
+      <c r="C2">
+        <v>5.1E-5</v>
+      </c>
+      <c r="D2">
+        <v>0.215838</v>
+      </c>
+      <c r="E2">
+        <v>2.412779</v>
+      </c>
+      <c r="F2">
+        <v>2.4899999999999998E-4</v>
+      </c>
+      <c r="G2">
+        <v>4.7547050000000004</v>
+      </c>
+      <c r="H2">
+        <v>9.4673580000000008</v>
+      </c>
+      <c r="I2">
+        <v>5.7300000000000005E-4</v>
+      </c>
+      <c r="J2">
+        <v>19.038142000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3">
-        <v>9.7000000000000003E-2</v>
+        <v>0.66639199999999998</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.17429900000000001</v>
       </c>
       <c r="D3">
-        <v>0.19</v>
+        <v>0.74844699999999997</v>
       </c>
       <c r="E3">
-        <v>2.3039999999999998</v>
+        <v>16.947164000000001</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>4.3067900000000003</v>
       </c>
       <c r="G3">
-        <v>4.7270000000000003</v>
+        <v>17.405342000000001</v>
       </c>
       <c r="H3">
-        <v>9.4749999999999996</v>
+        <v>67.538732999999993</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.038902</v>
       </c>
       <c r="J3">
-        <v>18.637</v>
+        <v>69.985844999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.59</v>
+        <v>0.662161</v>
       </c>
       <c r="C4">
-        <v>0.183</v>
+        <v>0.176344</v>
       </c>
       <c r="D4">
-        <v>0.61099999999999999</v>
+        <v>0.730769</v>
       </c>
       <c r="E4">
-        <v>15.041</v>
+        <v>17.284324999999999</v>
       </c>
       <c r="F4">
-        <v>4.33</v>
+        <v>4.3957470000000001</v>
       </c>
       <c r="G4">
-        <v>14.638</v>
+        <v>17.249980000000001</v>
       </c>
       <c r="H4">
-        <v>59.865000000000002</v>
+        <v>68.097331999999994</v>
       </c>
       <c r="I4">
-        <v>16.920999999999999</v>
+        <v>17.378018999999998</v>
       </c>
       <c r="J4">
-        <v>57.529000000000003</v>
+        <v>67.924502000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.61099999999999999</v>
+        <v>1.629E-3</v>
       </c>
       <c r="C5">
-        <v>0.18099999999999999</v>
+        <v>0.182088</v>
       </c>
       <c r="D5">
-        <v>0.58099999999999996</v>
+        <v>0.177594</v>
       </c>
       <c r="E5">
-        <v>15.208</v>
+        <v>9.3659999999999993E-3</v>
       </c>
       <c r="F5">
-        <v>4.3550000000000004</v>
+        <v>4.37608</v>
       </c>
       <c r="G5">
-        <v>14.805999999999999</v>
+        <v>4.3585219999999998</v>
       </c>
       <c r="H5">
-        <v>59.893999999999998</v>
+        <v>1.9944E-2</v>
       </c>
       <c r="I5">
-        <v>17.146999999999998</v>
+        <v>17.473656999999999</v>
       </c>
       <c r="J5">
-        <v>56.884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L7" t="s">
-        <v>12</v>
+        <v>17.303326999999999</v>
       </c>
     </row>
   </sheetData>
